--- a/normativa/Anexos/L01T03C08/L01T03C08A11.xlsx
+++ b/normativa/Anexos/L01T03C08/L01T03C08A11.xlsx
@@ -113,29 +113,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(1)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red Supernet.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Nota:  La información reportada en el presente Anexo, conlleva el carácter de declaración jurada de las personas que lo suscriben, para todos los efectos, de conformidad con el </t>
     </r>
     <r>
@@ -177,6 +154,39 @@
   </si>
   <si>
     <t>1. Departamento y Municipio:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red ASFINet</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -460,6 +470,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -469,6 +482,51 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,54 +544,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="40" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AL3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" zoomScaleNormal="40" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -920,88 +930,88 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -1026,46 +1036,46 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:38" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="40"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="56"/>
     </row>
     <row r="6" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
@@ -1095,88 +1105,88 @@
       <c r="Y6" s="17"/>
     </row>
     <row r="7" spans="1:38" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="49"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="43"/>
     </row>
     <row r="8" spans="1:38" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="49"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="43"/>
     </row>
     <row r="9" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -1250,88 +1260,88 @@
       <c r="AL10" s="15"/>
     </row>
     <row r="11" spans="1:38" s="13" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="46"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="40"/>
     </row>
     <row r="12" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="49"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="43"/>
     </row>
     <row r="13" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
@@ -1403,172 +1413,172 @@
       <c r="AL14" s="7"/>
     </row>
     <row r="15" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
-        <v>22</v>
+      <c r="A15" s="50" t="s">
+        <v>21</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="57"/>
-      <c r="AI15" s="57"/>
-      <c r="AJ15" s="57"/>
-      <c r="AK15" s="57"/>
-      <c r="AL15" s="58"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="52"/>
     </row>
     <row r="16" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="58"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="52"/>
     </row>
     <row r="17" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="57"/>
-      <c r="AI17" s="57"/>
-      <c r="AJ17" s="57"/>
-      <c r="AK17" s="57"/>
-      <c r="AL17" s="58"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="52"/>
     </row>
     <row r="18" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="57"/>
-      <c r="AJ18" s="57"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="58"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="52"/>
     </row>
     <row r="19" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
@@ -1613,50 +1623,50 @@
       <c r="AL19" s="31"/>
     </row>
     <row r="20" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="37"/>
     </row>
     <row r="21" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -1724,46 +1734,46 @@
       <c r="Y22" s="17"/>
     </row>
     <row r="23" spans="1:38" s="8" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="51"/>
-      <c r="AG23" s="51"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="51"/>
-      <c r="AL23" s="52"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="45"/>
+      <c r="AK23" s="45"/>
+      <c r="AL23" s="46"/>
     </row>
     <row r="24" spans="1:38" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
@@ -1808,88 +1818,88 @@
       <c r="AL24" s="10"/>
     </row>
     <row r="25" spans="1:38" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="35"/>
-      <c r="AK25" s="35"/>
-      <c r="AL25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="37"/>
     </row>
     <row r="26" spans="1:38" s="8" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="37"/>
     </row>
     <row r="27" spans="1:38" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
@@ -1934,44 +1944,44 @@
       <c r="AL27" s="11"/>
     </row>
     <row r="28" spans="1:38" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="54"/>
-      <c r="AG28" s="54"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="54"/>
-      <c r="AJ28" s="54"/>
-      <c r="AK28" s="54"/>
-      <c r="AL28" s="55"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="49"/>
     </row>
     <row r="29" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
@@ -2244,33 +2254,33 @@
       <c r="Y38" s="17"/>
     </row>
     <row r="39" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
     </row>
     <row r="40" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
@@ -2327,46 +2337,46 @@
       <c r="Y41" s="17"/>
     </row>
     <row r="42" spans="1:38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
-        <v>21</v>
+      <c r="A42" s="34" t="s">
+        <v>20</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="43"/>
-      <c r="AC42" s="43"/>
-      <c r="AD42" s="43"/>
-      <c r="AE42" s="43"/>
-      <c r="AF42" s="43"/>
-      <c r="AG42" s="43"/>
-      <c r="AH42" s="43"/>
-      <c r="AI42" s="43"/>
-      <c r="AJ42" s="43"/>
-      <c r="AK42" s="43"/>
-      <c r="AL42" s="43"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="34"/>
+      <c r="AG42" s="34"/>
+      <c r="AH42" s="34"/>
+      <c r="AI42" s="34"/>
+      <c r="AJ42" s="34"/>
+      <c r="AK42" s="34"/>
+      <c r="AL42" s="34"/>
     </row>
     <row r="43" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -2537,6 +2547,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:AL5"/>
+    <mergeCell ref="A2:AL2"/>
+    <mergeCell ref="A3:AL3"/>
     <mergeCell ref="A42:AL42"/>
     <mergeCell ref="A20:AL20"/>
     <mergeCell ref="A11:AL11"/>
@@ -2552,9 +2565,6 @@
     <mergeCell ref="A18:AL18"/>
     <mergeCell ref="A25:AL25"/>
     <mergeCell ref="A39:AA39"/>
-    <mergeCell ref="A5:AL5"/>
-    <mergeCell ref="A2:AL2"/>
-    <mergeCell ref="A3:AL3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="63" orientation="portrait" r:id="rId1"/>
@@ -2562,7 +2572,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Negrita"&amp;5&amp;K0033CCControl de versiones&amp;"Arial,Normal"&amp;K01+000
-Circular ASFI/472/2017 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
+Circular ASFI/828/2024 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título III
 Capítulo  VIII
 Anexo 11
